--- a/fhir/ig/tei/0.2.1/observations-summary.xlsx
+++ b/fhir/ig/tei/0.2.1/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Profile</t>
   </si>
@@ -56,10 +56,10 @@
     <t/>
   </si>
   <si>
-    <t>null#108217004</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+    <t>null#84100007</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/TipoDeObservacion (extensible)</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
@@ -92,10 +92,7 @@
     <t>Observation Category Codes#survey</t>
   </si>
   <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSIndicecomorbilidad (required)</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+    <t>CodeableConceptĵ</t>
   </si>
   <si>
     <t>ObservationIniciarCuidadorLE</t>
@@ -384,13 +381,13 @@
         <v>13</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -404,19 +401,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>15</v>
@@ -439,28 +436,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s" s="2">
+      <c r="G6" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="H6" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>

--- a/fhir/ig/tei/0.2.1/observations-summary.xlsx
+++ b/fhir/ig/tei/0.2.1/observations-summary.xlsx
@@ -62,7 +62,7 @@
     <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/TipoDeObservacion (extensible)</t>
   </si>
   <si>
-    <t>dateTime, Period, Timing, instant</t>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
   </si>
   <si>
     <t>stringĵ</t>
@@ -116,7 +116,7 @@
     <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/CodigoExamen (required)</t>
   </si>
   <si>
-    <t>dateTime</t>
+    <t>dateTimeĵ</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
